--- a/media/eb_order/eb_order_lump(request).xlsx
+++ b/media/eb_order/eb_order_lump(request).xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\oa\sales\media\eb_order\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6D06AA-4C55-400A-B466-4041C7FB6CEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7068"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -28,7 +34,7 @@
     <rPh sb="0" eb="3">
       <t>チュウモンビ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>注文番号</t>
@@ -38,7 +44,7 @@
     <rPh sb="2" eb="4">
       <t>バンゴウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>株式会社イー・ビジネス</t>
@@ -48,14 +54,14 @@
     <rPh sb="2" eb="4">
       <t>カイシャ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>件名</t>
     <rPh sb="0" eb="2">
       <t>ケンメイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>契約金額</t>
@@ -65,14 +71,14 @@
     <rPh sb="2" eb="4">
       <t>キンガク</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>消費税</t>
     <rPh sb="0" eb="3">
       <t>ショウヒゼイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>合計額</t>
@@ -82,7 +88,7 @@
     <rPh sb="2" eb="3">
       <t>ガク</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>作業期間及び納期</t>
@@ -98,7 +104,7 @@
     <rPh sb="6" eb="8">
       <t>ノウキ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>作業内容</t>
@@ -108,7 +114,7 @@
     <rPh sb="2" eb="4">
       <t>ナイヨウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>作業量</t>
@@ -118,7 +124,7 @@
     <rPh sb="2" eb="3">
       <t>リョウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>納入成果品</t>
@@ -131,7 +137,7 @@
     <rPh sb="4" eb="5">
       <t>ヒン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>主管部署</t>
@@ -141,36 +147,14 @@
     <rPh sb="2" eb="4">
       <t>ブショ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>住所</t>
     <rPh sb="0" eb="2">
       <t>ジュウショ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>東京都港区芝2-28-8芝2丁目ビル10階</t>
-    <rPh sb="0" eb="3">
-      <t>トウキョウト</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナトク</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>シバ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>シバ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>チョウメ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>カイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>及び納入場所</t>
@@ -183,21 +167,21 @@
     <rPh sb="4" eb="6">
       <t>バショ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>部署</t>
     <rPh sb="0" eb="2">
       <t>ブショ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>注文請書</t>
@@ -207,7 +191,7 @@
     <rPh sb="2" eb="4">
       <t>ウケショ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>（発注者）</t>
@@ -217,14 +201,14 @@
     <rPh sb="3" eb="4">
       <t>シャ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>（受注者）</t>
     <rPh sb="1" eb="4">
       <t>ジュチュウシャ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>承諾日</t>
@@ -234,31 +218,31 @@
     <rPh sb="2" eb="3">
       <t>ビ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>{$PUBLISH_DATE$}</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>{$ORDER_NO$}</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>{$COMPANY_NAME$} 殿</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>{$SUBCONTRACTOR_ADDRESS1$}</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>{$SUBCONTRACTOR_ADDRESS2$}</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>TEL:{$SUBCONTRACTOR_TEL$}</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>別紙、注文書No.:（{$ORDER_NO$}）に基づき、下記の通りお請け致します。</t>
@@ -268,70 +252,96 @@
     <rPh sb="3" eb="6">
       <t>チュウモンショ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>{$PUBLISH_DATE$}</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>{$PROJECT_NAME$}</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>{$ALLOWANCE_BASE$}</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>{$ALLOWANCE_BASE_TAX$}</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>{$ALLOWANCE_BASE_TOTAL$}</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>{$START_DATE$} ～ {$END_DATE$}　（納期：{$DELIVERY_DATE$}）</t>
     <rPh sb="31" eb="33">
       <t>ノウキ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>{$PROJECT_CONTENT$}</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>{$WORKLOAD$}</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>{$PROJECT_RESULT$}</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>{$COMMENT$}</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>{$SUBCONTRACTOR_NAME$}   ㊞</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>東京都港区虎ノ門１丁目17番1号　虎ノ門ヒルズビジネスタワー　5階</t>
+    <rPh sb="13" eb="14">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ゴウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>トラ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -633,130 +643,136 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="11" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -793,7 +809,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1129,23 +1151,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -1158,17 +1182,17 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:9" ht="28.2" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+    <row r="2" spans="1:9" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1182,7 +1206,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1191,12 +1215,12 @@
       <c r="F4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="38"/>
-    </row>
-    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G4" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="37"/>
+    </row>
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1205,10 +1229,10 @@
       <c r="F5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="39"/>
+      <c r="G5" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="38"/>
     </row>
     <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
@@ -1220,9 +1244,9 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1232,9 +1256,9 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1243,24 +1267,24 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="7" t="s">
-        <v>38</v>
+      <c r="E10" s="39" t="s">
+        <v>37</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -1270,8 +1294,8 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="7" t="s">
-        <v>24</v>
+      <c r="E11" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1281,8 +1305,8 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
-        <v>25</v>
+      <c r="E12" s="39" t="s">
+        <v>24</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -1292,8 +1316,8 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="7" t="s">
-        <v>26</v>
+      <c r="E13" s="39" t="s">
+        <v>25</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -1308,9 +1332,9 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="4"/>
@@ -1330,12 +1354,12 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -1354,12 +1378,12 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -1368,12 +1392,12 @@
       <c r="G19" s="18"/>
       <c r="H19" s="19"/>
     </row>
-    <row r="20" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -1382,12 +1406,12 @@
       <c r="G20" s="10"/>
       <c r="H20" s="11"/>
     </row>
-    <row r="21" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -1396,12 +1420,12 @@
       <c r="G21" s="10"/>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -1410,12 +1434,12 @@
       <c r="G22" s="10"/>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
@@ -1424,12 +1448,12 @@
       <c r="G23" s="18"/>
       <c r="H23" s="19"/>
     </row>
-    <row r="24" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
@@ -1438,12 +1462,12 @@
       <c r="G24" s="22"/>
       <c r="H24" s="23"/>
     </row>
-    <row r="25" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -1452,12 +1476,12 @@
       <c r="G25" s="18"/>
       <c r="H25" s="19"/>
     </row>
-    <row r="26" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
@@ -1466,15 +1490,15 @@
       <c r="G26" s="18"/>
       <c r="H26" s="19"/>
     </row>
-    <row r="27" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="24" t="s">
-        <v>13</v>
+      <c r="C27" s="40" t="s">
+        <v>38</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -1482,14 +1506,14 @@
       <c r="G27" s="18"/>
       <c r="H27" s="19"/>
     </row>
-    <row r="28" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="41" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="18"/>
@@ -1498,7 +1522,7 @@
       <c r="G28" s="18"/>
       <c r="H28" s="19"/>
     </row>
-    <row r="29" spans="1:8" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1508,131 +1532,131 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="27"/>
-    </row>
-    <row r="31" spans="1:8" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="29"/>
-    </row>
-    <row r="32" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="30"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="32"/>
-    </row>
-    <row r="33" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="32"/>
-    </row>
-    <row r="34" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="30"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="32"/>
-    </row>
-    <row r="35" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="30"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="32"/>
-    </row>
-    <row r="36" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="30"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="32"/>
-    </row>
-    <row r="37" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="30"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="32"/>
-    </row>
-    <row r="38" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="30"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="32"/>
-    </row>
-    <row r="39" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="30"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="32"/>
-    </row>
-    <row r="40" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="30"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="32"/>
-    </row>
-    <row r="41" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="33"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="35"/>
-    </row>
-    <row r="42" spans="1:8" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="26"/>
+    </row>
+    <row r="31" spans="1:8" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="28"/>
+    </row>
+    <row r="32" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="29"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="31"/>
+    </row>
+    <row r="33" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="29"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="31"/>
+    </row>
+    <row r="34" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="29"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="31"/>
+    </row>
+    <row r="35" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="29"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="31"/>
+    </row>
+    <row r="36" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="29"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="31"/>
+    </row>
+    <row r="37" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="29"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="31"/>
+    </row>
+    <row r="38" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="29"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="31"/>
+    </row>
+    <row r="39" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="29"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="31"/>
+    </row>
+    <row r="40" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="29"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="31"/>
+    </row>
+    <row r="41" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="32"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="34"/>
+    </row>
+    <row r="42" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1648,7 +1672,7 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
   </mergeCells>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/media/eb_order/eb_order_lump(request).xlsx
+++ b/media/eb_order/eb_order_lump(request).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\oa\sales\media\eb_order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6D06AA-4C55-400A-B466-4041C7FB6CEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DE2868-7BDF-4258-9930-F46592E638AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$41</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -328,7 +328,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,6 +439,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -647,7 +654,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -756,22 +763,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1159,10 +1169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1172,7 +1182,7 @@
     <col min="3" max="4" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1181,21 +1191,23 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="36" t="s">
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1205,36 +1217,37 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="H4" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="37"/>
-    </row>
-    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I4" s="39"/>
+    </row>
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="H5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="38"/>
-    </row>
-    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I5" s="40"/>
+    </row>
+    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1242,9 +1255,10 @@
       <c r="E6" s="4"/>
       <c r="F6" s="6"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H6" s="36"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
@@ -1255,8 +1269,9 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -1266,8 +1281,9 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1277,52 +1293,57 @@
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="37" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="37" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="37" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="37" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1331,8 +1352,9 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
@@ -1343,8 +1365,9 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1353,8 +1376,9 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
@@ -1367,8 +1391,9 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1377,8 +1402,9 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
         <v>3</v>
       </c>
@@ -1390,9 +1416,10 @@
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
-      <c r="H19" s="19"/>
-    </row>
-    <row r="20" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H19" s="18"/>
+      <c r="I19" s="19"/>
+    </row>
+    <row r="20" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
         <v>4</v>
       </c>
@@ -1404,9 +1431,10 @@
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="21" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H20" s="10"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
         <v>5</v>
       </c>
@@ -1418,9 +1446,10 @@
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H21" s="10"/>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
         <v>6</v>
       </c>
@@ -1432,9 +1461,10 @@
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H22" s="10"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
         <v>7</v>
       </c>
@@ -1446,9 +1476,10 @@
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
-      <c r="H23" s="19"/>
-    </row>
-    <row r="24" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H23" s="18"/>
+      <c r="I23" s="19"/>
+    </row>
+    <row r="24" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
         <v>8</v>
       </c>
@@ -1460,9 +1491,10 @@
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
-      <c r="H24" s="23"/>
-    </row>
-    <row r="25" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H24" s="22"/>
+      <c r="I24" s="23"/>
+    </row>
+    <row r="25" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
         <v>9</v>
       </c>
@@ -1474,9 +1506,10 @@
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
-      <c r="H25" s="19"/>
-    </row>
-    <row r="26" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H25" s="18"/>
+      <c r="I25" s="19"/>
+    </row>
+    <row r="26" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
         <v>10</v>
       </c>
@@ -1488,41 +1521,44 @@
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
-      <c r="H26" s="19"/>
-    </row>
-    <row r="27" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H26" s="18"/>
+      <c r="I26" s="19"/>
+    </row>
+    <row r="27" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="41" t="s">
         <v>38</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
-      <c r="H27" s="19"/>
-    </row>
-    <row r="28" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H27" s="18"/>
+      <c r="I27" s="19"/>
+    </row>
+    <row r="28" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="42" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
-      <c r="H28" s="19"/>
-    </row>
-    <row r="29" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="H28" s="18"/>
+      <c r="I28" s="19"/>
+    </row>
+    <row r="29" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1531,8 +1567,9 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
         <v>15</v>
       </c>
@@ -1542,9 +1579,10 @@
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
-      <c r="H30" s="26"/>
-    </row>
-    <row r="31" spans="1:8" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="H30" s="25"/>
+      <c r="I30" s="26"/>
+    </row>
+    <row r="31" spans="1:9" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A31" s="35" t="s">
         <v>36</v>
       </c>
@@ -1554,9 +1592,10 @@
       <c r="E31" s="27"/>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
-      <c r="H31" s="28"/>
-    </row>
-    <row r="32" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H31" s="27"/>
+      <c r="I31" s="28"/>
+    </row>
+    <row r="32" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="29"/>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
@@ -1564,9 +1603,10 @@
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
       <c r="G32" s="30"/>
-      <c r="H32" s="31"/>
-    </row>
-    <row r="33" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H32" s="30"/>
+      <c r="I32" s="31"/>
+    </row>
+    <row r="33" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="29"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
@@ -1574,9 +1614,10 @@
       <c r="E33" s="30"/>
       <c r="F33" s="30"/>
       <c r="G33" s="30"/>
-      <c r="H33" s="31"/>
-    </row>
-    <row r="34" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H33" s="30"/>
+      <c r="I33" s="31"/>
+    </row>
+    <row r="34" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="29"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
@@ -1584,9 +1625,10 @@
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
       <c r="G34" s="30"/>
-      <c r="H34" s="31"/>
-    </row>
-    <row r="35" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H34" s="30"/>
+      <c r="I34" s="31"/>
+    </row>
+    <row r="35" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="29"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
@@ -1594,9 +1636,10 @@
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
       <c r="G35" s="30"/>
-      <c r="H35" s="31"/>
-    </row>
-    <row r="36" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H35" s="30"/>
+      <c r="I35" s="31"/>
+    </row>
+    <row r="36" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="29"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
@@ -1604,9 +1647,10 @@
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
       <c r="G36" s="30"/>
-      <c r="H36" s="31"/>
-    </row>
-    <row r="37" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H36" s="30"/>
+      <c r="I36" s="31"/>
+    </row>
+    <row r="37" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="29"/>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
@@ -1614,9 +1658,10 @@
       <c r="E37" s="30"/>
       <c r="F37" s="30"/>
       <c r="G37" s="30"/>
-      <c r="H37" s="31"/>
-    </row>
-    <row r="38" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H37" s="30"/>
+      <c r="I37" s="31"/>
+    </row>
+    <row r="38" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="29"/>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
@@ -1624,9 +1669,10 @@
       <c r="E38" s="30"/>
       <c r="F38" s="30"/>
       <c r="G38" s="30"/>
-      <c r="H38" s="31"/>
-    </row>
-    <row r="39" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H38" s="30"/>
+      <c r="I38" s="31"/>
+    </row>
+    <row r="39" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="29"/>
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
@@ -1634,9 +1680,10 @@
       <c r="E39" s="30"/>
       <c r="F39" s="30"/>
       <c r="G39" s="30"/>
-      <c r="H39" s="31"/>
-    </row>
-    <row r="40" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H39" s="30"/>
+      <c r="I39" s="31"/>
+    </row>
+    <row r="40" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="29"/>
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
@@ -1644,9 +1691,10 @@
       <c r="E40" s="30"/>
       <c r="F40" s="30"/>
       <c r="G40" s="30"/>
-      <c r="H40" s="31"/>
-    </row>
-    <row r="41" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H40" s="30"/>
+      <c r="I40" s="31"/>
+    </row>
+    <row r="41" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="32"/>
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
@@ -1654,9 +1702,10 @@
       <c r="E41" s="33"/>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
-      <c r="H41" s="34"/>
-    </row>
-    <row r="42" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="H41" s="33"/>
+      <c r="I41" s="34"/>
+    </row>
+    <row r="42" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1665,16 +1714,15 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2:I2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="92" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>